--- a/src/test/java/utilities/Data.xlsx
+++ b/src/test/java/utilities/Data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="67">
   <si>
     <t>BIG &amp; TALL COLOUR-BLOCKED SLIM FIT POLO</t>
   </si>
@@ -289,6 +289,85 @@
 • Regular fit
 Composition &amp; care
 • 100% cotton</t>
+  </si>
+  <si>
+    <t>SIGNATURE COLOUR-BLOCKED SWIM SHORTS</t>
+  </si>
+  <si>
+    <t>Calypso Green</t>
+  </si>
+  <si>
+    <t>Nothing says Tommy Hilfiger like the unmissable signature colours on these swim shorts – show them off at your next pool session.
+Highlights
+• Recycled nylon swim fabric
+• Signature colour-blocked design on front
+• Elasticated drawstring waist
+• Two waist slip pockets
+• One back patch flap pocket
+• Tommy Hilfiger branding
+• Tommy Hilfiger flag embroidery at hem
+Composition &amp; care
+• 100% recycled nylon</t>
+  </si>
+  <si>
+    <t>COLOUR-BLOCKED LOGO KIDS TOWEL</t>
+  </si>
+  <si>
+    <t>£42.00</t>
+  </si>
+  <si>
+    <t>Intense Blue 330-760</t>
+  </si>
+  <si>
+    <t>Make waves at the poolside by rocking up to your sunlounger and rolling out this bright and bold colour-blocked logo towel.
+Highlights
+• Pure cotton towelling
+• Signature colour-blocked design
+• Tommy Hilfiger logo on front
+• Tommy Hilfiger branding
+Shape &amp; fit
+• 80 x 160cm
+Composition &amp; care
+• 100% cotton</t>
+  </si>
+  <si>
+    <t>COLOUR-BLOCKED POCKET DRAWSTRING SWIM SHORTS</t>
+  </si>
+  <si>
+    <t>£58.00</t>
+  </si>
+  <si>
+    <t>Pitch Blue</t>
+  </si>
+  <si>
+    <t>OCTOPUS PRINT DRAWSTRING SWIM SHORTS</t>
+  </si>
+  <si>
+    <t>£16.00</t>
+  </si>
+  <si>
+    <t>Octopus - Cobalt</t>
+  </si>
+  <si>
+    <t>FLAG DRAWSTRING SWIM SHORTS</t>
+  </si>
+  <si>
+    <t>£24.00</t>
+  </si>
+  <si>
+    <t>Make a splash in these bold swimming shorts – cannonball sessions at the pool are no match for their secure drawstring waist.
+Highlights
+• Recycled nylon swim fabric
+• Elasticated drawstring waist
+• Two waist slip pockets
+• One back patch pocket
+• Tommy Hilfiger branding
+• Tommy Hilfiger flag at hem
+Composition &amp; care
+• 100% recycled nylon</t>
+  </si>
+  <si>
+    <t>Red Glare</t>
   </si>
 </sst>
 </file>
@@ -654,50 +733,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s">
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>51</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="E3" t="s">
         <v>7</v>
@@ -705,75 +784,75 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>60</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>63</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>64</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>7</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>50</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>54</v>
       </c>
       <c r="C7" t="s">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="E7" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>16</v>
@@ -782,7 +861,7 @@
         <v>2</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="E8" t="s">
         <v>7</v>
@@ -790,7 +869,7 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
         <v>16</v>
@@ -799,7 +878,7 @@
         <v>2</v>
       </c>
       <c r="D9" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E9" t="s">
         <v>7</v>
@@ -918,7 +997,7 @@
         <v>2</v>
       </c>
       <c r="D16" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E16" t="s">
         <v>38</v>
@@ -926,36 +1005,36 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C17" t="s">
         <v>2</v>
       </c>
       <c r="D17" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C18" t="s">
         <v>2</v>
       </c>
       <c r="D18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E18" t="s">
-        <v>38</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19">

--- a/src/test/java/utilities/Data.xlsx
+++ b/src/test/java/utilities/Data.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="67">
   <si>
     <t>BIG &amp; TALL COLOUR-BLOCKED SLIM FIT POLO</t>
   </si>
@@ -801,10 +801,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -813,7 +813,7 @@
         <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6">
@@ -821,13 +821,13 @@
         <v>63</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
         <v>65</v>

--- a/src/test/java/utilities/Data.xlsx
+++ b/src/test/java/utilities/Data.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1307" uniqueCount="56">
   <si>
     <t>ProductCode</t>
   </si>
@@ -156,6 +156,65 @@
   </si>
   <si>
     <t>Silk Blue</t>
+  </si>
+  <si>
+    <t>Cat1En</t>
+  </si>
+  <si>
+    <t>Cat1Ar</t>
+  </si>
+  <si>
+    <t>Cat1Enable</t>
+  </si>
+  <si>
+    <t>MW0MW14475</t>
+  </si>
+  <si>
+    <t>MW0MW14475YBR</t>
+  </si>
+  <si>
+    <t>LIGHTWEIGHT OXFORD SHIRT</t>
+  </si>
+  <si>
+    <t>Look classy and sophisticated in this Oxford shirt, crafted from pure lightweight cotton and finished with the Tommy Hilfiger flag.
+Highlights
+• Pure cotton
+• Contrast tape inside placket
+• Button-down collar
+• Tommy Hilfiger branding
+• Tommy Hilfiger flag embroidery on chest
+Shape &amp; fit
+• Regular fit
+• Our model is 1.86m and wears size M
+Composition &amp; care
+• 100% cotton</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>S</t>
+  </si>
+  <si>
+    <t>White</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>XL</t>
+  </si>
+  <si>
+    <t>XXL</t>
+  </si>
+  <si>
+    <t>MW0MW14475TOL</t>
+  </si>
+  <si>
+    <t>Classic Pink</t>
   </si>
 </sst>
 </file>
@@ -474,7 +533,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="C1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C9" sqref="A2:S14"/>
@@ -488,9 +547,15 @@
     <col min="4" max="4" customWidth="true" width="21.0" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="22.36328125" collapsed="true"/>
     <col min="6" max="6" customWidth="true" width="17.1796875" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="11.90625" collapsed="false"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="11.90625" collapsed="true"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="C1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -564,22 +629,22 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="G3" t="s">
         <v>23</v>
@@ -591,16 +656,16 @@
         <v>24</v>
       </c>
       <c r="J3" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="K3" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="L3" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="M3" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="N3" t="s">
         <v>28</v>
@@ -623,22 +688,22 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C4" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F4" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="G4" t="s">
         <v>23</v>
@@ -650,16 +715,16 @@
         <v>24</v>
       </c>
       <c r="J4" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>50</v>
       </c>
       <c r="L4" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="M4" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="N4" t="s">
         <v>28</v>
@@ -682,22 +747,22 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C5" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="G5" t="s">
         <v>23</v>
@@ -709,16 +774,16 @@
         <v>24</v>
       </c>
       <c r="J5" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="K5" t="s">
-        <v>33</v>
+        <v>51</v>
       </c>
       <c r="L5" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="M5" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="N5" t="s">
         <v>28</v>
@@ -741,22 +806,22 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C6" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F6" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="G6" t="s">
         <v>23</v>
@@ -768,16 +833,16 @@
         <v>24</v>
       </c>
       <c r="J6" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="K6" t="s">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="L6" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="M6" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="N6" t="s">
         <v>28</v>
@@ -800,22 +865,22 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="C7" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="G7" t="s">
         <v>23</v>
@@ -827,16 +892,16 @@
         <v>24</v>
       </c>
       <c r="J7" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="K7" t="s">
-        <v>35</v>
+        <v>53</v>
       </c>
       <c r="L7" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="M7" t="s">
-        <v>27</v>
+        <v>49</v>
       </c>
       <c r="N7" t="s">
         <v>28</v>
@@ -859,22 +924,22 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="C8" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="G8" t="s">
         <v>23</v>
@@ -886,16 +951,16 @@
         <v>24</v>
       </c>
       <c r="J8" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="K8" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="L8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="M8" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="N8" t="s">
         <v>28</v>
@@ -918,22 +983,22 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B9" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="G9" t="s">
         <v>23</v>
@@ -945,16 +1010,16 @@
         <v>24</v>
       </c>
       <c r="J9" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="K9" t="s">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="L9" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="M9" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="N9" t="s">
         <v>28</v>
@@ -977,22 +1042,22 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C10" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D10" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F10" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="G10" t="s">
         <v>23</v>
@@ -1004,16 +1069,16 @@
         <v>24</v>
       </c>
       <c r="J10" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="K10" t="s">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="L10" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="M10" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="N10" t="s">
         <v>28</v>
@@ -1036,22 +1101,22 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F11" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="G11" t="s">
         <v>23</v>
@@ -1063,16 +1128,16 @@
         <v>24</v>
       </c>
       <c r="J11" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="K11" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
       <c r="L11" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="M11" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="N11" t="s">
         <v>28</v>
@@ -1095,22 +1160,22 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>19</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>46</v>
       </c>
       <c r="G12" t="s">
         <v>23</v>
@@ -1122,16 +1187,16 @@
         <v>24</v>
       </c>
       <c r="J12" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="K12" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="L12" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="M12" t="s">
-        <v>39</v>
+        <v>55</v>
       </c>
       <c r="N12" t="s">
         <v>28</v>
